--- a/Intelligibility/transposedIntelligibility_lda.xlsx
+++ b/Intelligibility/transposedIntelligibility_lda.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z31"/>
+  <dimension ref="A1:Y31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -559,7 +559,6 @@
           <t>v70</t>
         </is>
       </c>
-      <c r="Z1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -639,9 +638,6 @@
       <c r="Y2" t="n">
         <v>0.5592652559280396</v>
       </c>
-      <c r="Z2" t="n">
-        <v>0.5358027219772339</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -721,9 +717,6 @@
       <c r="Y3" t="n">
         <v>0.5426861643791199</v>
       </c>
-      <c r="Z3" t="n">
-        <v>0.4485573768615722</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -803,9 +796,6 @@
       <c r="Y4" t="n">
         <v>0.090524211525917</v>
       </c>
-      <c r="Z4" t="n">
-        <v>0.5534225106239319</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -885,9 +875,6 @@
       <c r="Y5" t="n">
         <v>0.5424011945724487</v>
       </c>
-      <c r="Z5" t="n">
-        <v>0.0929650664329528</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -967,9 +954,6 @@
       <c r="Y6" t="n">
         <v>0.318620502948761</v>
       </c>
-      <c r="Z6" t="n">
-        <v>0.09133958071470261</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -1049,9 +1033,6 @@
       <c r="Y7" t="n">
         <v>0.9983563423156738</v>
       </c>
-      <c r="Z7" t="n">
-        <v>0.9999032616615297</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -1131,9 +1112,6 @@
       <c r="Y8" t="n">
         <v>0.8315116763114929</v>
       </c>
-      <c r="Z8" t="n">
-        <v>0.5564745664596558</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -1213,9 +1191,6 @@
       <c r="Y9" t="n">
         <v>0.7893221974372864</v>
       </c>
-      <c r="Z9" t="n">
-        <v>0.5361667275428772</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -1295,9 +1270,6 @@
       <c r="Y10" t="n">
         <v>0.6195720434188843</v>
       </c>
-      <c r="Z10" t="n">
-        <v>0.5599714517593384</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -1377,9 +1349,6 @@
       <c r="Y11" t="n">
         <v>0.9999572038650512</v>
       </c>
-      <c r="Z11" t="n">
-        <v>0.1171931028366088</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1459,9 +1428,6 @@
       <c r="Y12" t="n">
         <v>0.1183076873421669</v>
       </c>
-      <c r="Z12" t="n">
-        <v>0.9965267181396484</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1541,9 +1507,6 @@
       <c r="Y13" t="n">
         <v>0.5597817301750183</v>
       </c>
-      <c r="Z13" t="n">
-        <v>0.09644778072834009</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1623,9 +1586,6 @@
       <c r="Y14" t="n">
         <v>0.1686873137950897</v>
       </c>
-      <c r="Z14" t="n">
-        <v>0.0975399538874626</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1705,9 +1665,6 @@
       <c r="Y15" t="n">
         <v>0.107067123055458</v>
       </c>
-      <c r="Z15" t="n">
-        <v>0.2565504610538482</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1787,9 +1744,6 @@
       <c r="Y16" t="n">
         <v>0.1267673075199127</v>
       </c>
-      <c r="Z16" t="n">
-        <v>0.1966400146484375</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1869,9 +1823,6 @@
       <c r="Y17" t="n">
         <v>0.1358451247215271</v>
       </c>
-      <c r="Z17" t="n">
-        <v>0.5182271599769592</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1951,9 +1902,6 @@
       <c r="Y18" t="n">
         <v>0.5352708697319031</v>
       </c>
-      <c r="Z18" t="n">
-        <v>0.0809487700462341</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -2033,9 +1981,6 @@
       <c r="Y19" t="n">
         <v>0.5573544502258301</v>
       </c>
-      <c r="Z19" t="n">
-        <v>0.5479758381843567</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -2115,9 +2060,6 @@
       <c r="Y20" t="n">
         <v>0.1218562275171279</v>
       </c>
-      <c r="Z20" t="n">
-        <v>0.09213335067033759</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -2197,9 +2139,6 @@
       <c r="Y21" t="n">
         <v>0.4137060940265655</v>
       </c>
-      <c r="Z21" t="n">
-        <v>0.541912317276001</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -2279,9 +2218,6 @@
       <c r="Y22" t="n">
         <v>0.1050176471471786</v>
       </c>
-      <c r="Z22" t="n">
-        <v>0.5375498533248901</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -2361,9 +2297,6 @@
       <c r="Y23" t="n">
         <v>0.5332692861557007</v>
       </c>
-      <c r="Z23" t="n">
-        <v>0.9994684457778932</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -2443,9 +2376,6 @@
       <c r="Y24" t="n">
         <v>0.9984924793243408</v>
       </c>
-      <c r="Z24" t="n">
-        <v>0.5425695776939392</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -2525,9 +2455,6 @@
       <c r="Y25" t="n">
         <v>0.1027533784508705</v>
       </c>
-      <c r="Z25" t="n">
-        <v>0.4068693220615387</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -2607,9 +2534,6 @@
       <c r="Y26" t="n">
         <v>0.1575421094894409</v>
       </c>
-      <c r="Z26" t="n">
-        <v>0.1209790706634521</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -2689,9 +2613,6 @@
       <c r="Y27" t="n">
         <v>0.564821183681488</v>
       </c>
-      <c r="Z27" t="n">
-        <v>0.5373843312263489</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -2771,9 +2692,6 @@
       <c r="Y28" t="n">
         <v>0.08186867833137509</v>
       </c>
-      <c r="Z28" t="n">
-        <v>0.9997923374176024</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -2853,9 +2771,6 @@
       <c r="Y29" t="n">
         <v>0.1042121648788452</v>
       </c>
-      <c r="Z29" t="n">
-        <v>0.1127461120486259</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -2935,9 +2850,6 @@
       <c r="Y30" t="n">
         <v>0.1914108544588089</v>
       </c>
-      <c r="Z30" t="n">
-        <v>0.0668625235557556</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -3016,9 +2928,6 @@
       </c>
       <c r="Y31" t="n">
         <v>0.09033094346523279</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>0.5432066917419434</v>
       </c>
     </row>
   </sheetData>
